--- a/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.10404433077173</v>
+        <v>89.73524264774289</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9666375808939</v>
+        <v>1.784730358357322</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.03207118443086</v>
+        <v>89.06196249576395</v>
       </c>
       <c r="D3" t="n">
-        <v>1.814104752663501</v>
+        <v>1.6892355575349</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.3442294050532</v>
+        <v>88.21678799462208</v>
       </c>
       <c r="D4" t="n">
-        <v>2.001278020778023</v>
+        <v>1.906351965320882</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.39396983773182</v>
+        <v>86.92461543586128</v>
       </c>
       <c r="D5" t="n">
-        <v>1.628426867281581</v>
+        <v>1.618463676723022</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.16535804690611</v>
+        <v>86.04123670400239</v>
       </c>
       <c r="D6" t="n">
-        <v>1.556486090368054</v>
+        <v>1.726811104965064</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.98272271204081</v>
+        <v>85.46491938590016</v>
       </c>
       <c r="D7" t="n">
-        <v>1.790260768047558</v>
+        <v>3.060315914860902</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.11328956024472</v>
+        <v>84.00517415909525</v>
       </c>
       <c r="D8" t="n">
-        <v>1.730844325193261</v>
+        <v>1.708210402260161</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.98854027068312</v>
+        <v>83.08296347097199</v>
       </c>
       <c r="D9" t="n">
-        <v>1.987506575534862</v>
+        <v>1.848326974631656</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.08620084386327</v>
+        <v>81.92700963871563</v>
       </c>
       <c r="D10" t="n">
-        <v>1.620409239766515</v>
+        <v>1.710201880509143</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.11498645079449</v>
+        <v>80.73629772002289</v>
       </c>
       <c r="D11" t="n">
-        <v>3.291670693533157</v>
+        <v>1.416666305904826</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.9134723995509</v>
+        <v>80.12981765570018</v>
       </c>
       <c r="D12" t="n">
-        <v>1.829328193449518</v>
+        <v>1.669388316400152</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.10877823076163</v>
+        <v>78.92439638723155</v>
       </c>
       <c r="D13" t="n">
-        <v>3.220755530469528</v>
+        <v>1.873625968835052</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.91702936616049</v>
+        <v>77.80888609690554</v>
       </c>
       <c r="D14" t="n">
-        <v>1.859860186707013</v>
+        <v>1.547719577260405</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.93167860187953</v>
+        <v>76.89290420023687</v>
       </c>
       <c r="D15" t="n">
-        <v>1.840804022738081</v>
+        <v>1.799080753327307</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.01831311103965</v>
+        <v>75.92533691916574</v>
       </c>
       <c r="D16" t="n">
-        <v>1.622141736362214</v>
+        <v>1.662627210568853</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.69199679956012</v>
+        <v>75.15463209015391</v>
       </c>
       <c r="D17" t="n">
-        <v>1.800329479087399</v>
+        <v>1.616802482864967</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.02796585131021</v>
+        <v>74.09908484347523</v>
       </c>
       <c r="D18" t="n">
-        <v>1.743651157305506</v>
+        <v>1.885132480429809</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.96585677817684</v>
+        <v>73.17102164194792</v>
       </c>
       <c r="D19" t="n">
-        <v>2.010237161454379</v>
+        <v>1.534624776509214</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.0757279970293</v>
+        <v>72.10366488665859</v>
       </c>
       <c r="D20" t="n">
-        <v>1.743833534932052</v>
+        <v>1.584579967026996</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.0286655258855</v>
+        <v>70.97823147164733</v>
       </c>
       <c r="D21" t="n">
-        <v>1.83559059996293</v>
+        <v>1.76757351454057</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.03595762786833</v>
+        <v>70.11219146589772</v>
       </c>
       <c r="D22" t="n">
-        <v>1.56437490061863</v>
+        <v>3.705009955680249</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.06476825143692</v>
+        <v>69.22603273173605</v>
       </c>
       <c r="D23" t="n">
-        <v>1.511214012885529</v>
+        <v>3.589610677130758</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.1646090632165</v>
+        <v>68.42902169395006</v>
       </c>
       <c r="D24" t="n">
-        <v>1.891106787567852</v>
+        <v>1.699451300743023</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.09438214935761</v>
+        <v>67.25873857118125</v>
       </c>
       <c r="D25" t="n">
-        <v>1.763217365090747</v>
+        <v>1.738113694048627</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.15558977433155</v>
+        <v>65.98273920094152</v>
       </c>
       <c r="D26" t="n">
-        <v>2.007431010261388</v>
+        <v>1.701440553582733</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.91863653741065</v>
+        <v>64.9675233845453</v>
       </c>
       <c r="D27" t="n">
-        <v>1.68065886090708</v>
+        <v>1.718227869673426</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.96554550015724</v>
+        <v>64.87541435453905</v>
       </c>
       <c r="D28" t="n">
-        <v>1.599144256350744</v>
+        <v>5.204424592413146</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.84588409323704</v>
+        <v>63.0103739207744</v>
       </c>
       <c r="D29" t="n">
-        <v>1.858349134803903</v>
+        <v>1.977119052215833</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.08822585133363</v>
+        <v>62.06993569469366</v>
       </c>
       <c r="D30" t="n">
-        <v>1.876109170565574</v>
+        <v>1.666845500178116</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.97258300419607</v>
+        <v>61.16253704262385</v>
       </c>
       <c r="D31" t="n">
-        <v>1.738586831122722</v>
+        <v>1.623818383256084</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.85850287253301</v>
+        <v>60.44593888662228</v>
       </c>
       <c r="D32" t="n">
-        <v>1.466133522657236</v>
+        <v>4.032890925848376</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.90506279314653</v>
+        <v>58.80002927825434</v>
       </c>
       <c r="D33" t="n">
-        <v>1.585925638237819</v>
+        <v>1.881440122081473</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.88439387124254</v>
+        <v>57.94175693412826</v>
       </c>
       <c r="D34" t="n">
-        <v>5.516699127961108</v>
+        <v>1.87896262933828</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.31597925906294</v>
+        <v>56.6898644567576</v>
       </c>
       <c r="D35" t="n">
-        <v>1.825454476427313</v>
+        <v>1.806301299901154</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.24563976573342</v>
+        <v>55.90302575667308</v>
       </c>
       <c r="D36" t="n">
-        <v>1.661588199448738</v>
+        <v>1.690835925970009</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.17542479449461</v>
+        <v>54.92706046845214</v>
       </c>
       <c r="D37" t="n">
-        <v>1.81932813033245</v>
+        <v>1.845293758074373</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.86081512032018</v>
+        <v>54.02296873535177</v>
       </c>
       <c r="D38" t="n">
-        <v>1.649935060088515</v>
+        <v>1.869242997072223</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.96304020029253</v>
+        <v>52.76920501144498</v>
       </c>
       <c r="D39" t="n">
-        <v>1.760271459696686</v>
+        <v>1.732912122432464</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.77248719756497</v>
+        <v>51.77850382762485</v>
       </c>
       <c r="D40" t="n">
-        <v>1.57513311135716</v>
+        <v>1.794546276292931</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.038029585392</v>
+        <v>50.86025011934314</v>
       </c>
       <c r="D41" t="n">
-        <v>1.855019129238274</v>
+        <v>1.647115036985547</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.84943160309314</v>
+        <v>50.24582412256763</v>
       </c>
       <c r="D42" t="n">
-        <v>1.749708489939939</v>
+        <v>4.537673960059003</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.37964090081147</v>
+        <v>49.26187853907815</v>
       </c>
       <c r="D43" t="n">
-        <v>4.437054944542957</v>
+        <v>1.801541883886714</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.13951271013256</v>
+        <v>48.06393503302801</v>
       </c>
       <c r="D44" t="n">
-        <v>1.891862792819706</v>
+        <v>1.600099558945023</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.90507687532005</v>
+        <v>47.77277481880508</v>
       </c>
       <c r="D45" t="n">
-        <v>1.817059328393825</v>
+        <v>4.559910769166524</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.59355048706538</v>
+        <v>46.01968738308038</v>
       </c>
       <c r="D46" t="n">
-        <v>4.572979503092581</v>
+        <v>1.76948779839288</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.4654016614672</v>
+        <v>45.13476424962703</v>
       </c>
       <c r="D47" t="n">
-        <v>4.723340661610912</v>
+        <v>1.507792204909526</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.37369522453708</v>
+        <v>44.31600377377181</v>
       </c>
       <c r="D48" t="n">
-        <v>1.628823632691537</v>
+        <v>1.786042183953868</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99526635811614</v>
+        <v>43.17128889337102</v>
       </c>
       <c r="D49" t="n">
-        <v>1.703911617246163</v>
+        <v>1.409480164485711</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.06392839745483</v>
+        <v>42.22545748882238</v>
       </c>
       <c r="D50" t="n">
-        <v>1.678363998049286</v>
+        <v>1.612444192474131</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.38696303171037</v>
+        <v>41.04123416074148</v>
       </c>
       <c r="D51" t="n">
-        <v>4.8024197196812</v>
+        <v>1.483255908630328</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.05906647418966</v>
+        <v>39.99889014225894</v>
       </c>
       <c r="D52" t="n">
-        <v>1.757505505736628</v>
+        <v>1.59111969943438</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.96930506335286</v>
+        <v>39.6110477817431</v>
       </c>
       <c r="D53" t="n">
-        <v>1.705523836802577</v>
+        <v>4.815373093032412</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.66787006370823</v>
+        <v>38.23306406037838</v>
       </c>
       <c r="D54" t="n">
-        <v>1.798081850219604</v>
+        <v>1.717539354898525</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.08150440027592</v>
+        <v>37.04568198605288</v>
       </c>
       <c r="D55" t="n">
-        <v>1.581909382261112</v>
+        <v>1.615073931034611</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.13707143291789</v>
+        <v>36.33929837563053</v>
       </c>
       <c r="D56" t="n">
-        <v>1.574987041990842</v>
+        <v>5.065187143664687</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.8104728806729</v>
+        <v>35.55226011488912</v>
       </c>
       <c r="D57" t="n">
-        <v>1.702665628381577</v>
+        <v>5.081714973463872</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.80262638492782</v>
+        <v>34.66015665331755</v>
       </c>
       <c r="D58" t="n">
-        <v>1.896855143390723</v>
+        <v>5.223721363147726</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.03928248261433</v>
+        <v>33.14437867056265</v>
       </c>
       <c r="D59" t="n">
-        <v>1.636537498815658</v>
+        <v>1.67393080692591</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.16222160450398</v>
+        <v>31.9324101694966</v>
       </c>
       <c r="D60" t="n">
-        <v>1.540023824312025</v>
+        <v>1.430858466395356</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.83452193720794</v>
+        <v>31.13437716115735</v>
       </c>
       <c r="D61" t="n">
-        <v>1.671497040284601</v>
+        <v>5.276911758822231</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.46037332986524</v>
+        <v>29.75290191990327</v>
       </c>
       <c r="D62" t="n">
-        <v>5.303245845327756</v>
+        <v>1.617419205926588</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.72486526901643</v>
+        <v>29.80622569077978</v>
       </c>
       <c r="D63" t="n">
-        <v>1.597208434479805</v>
+        <v>5.261121167762513</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.80622796900441</v>
+        <v>28.03903867835212</v>
       </c>
       <c r="D64" t="n">
-        <v>1.637338351238547</v>
+        <v>1.844052503326758</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.96692128879376</v>
+        <v>27.08736781321412</v>
       </c>
       <c r="D65" t="n">
-        <v>1.426641736067445</v>
+        <v>1.69311604558916</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.6375106047279</v>
+        <v>25.94554011532907</v>
       </c>
       <c r="D66" t="n">
-        <v>1.685720233416456</v>
+        <v>1.591413414672595</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.12486623194999</v>
+        <v>25.64876705561868</v>
       </c>
       <c r="D67" t="n">
-        <v>7.637655629301247</v>
+        <v>5.473381902210687</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.07406448793258</v>
+        <v>23.82961259316433</v>
       </c>
       <c r="D68" t="n">
-        <v>1.686929426129849</v>
+        <v>1.697117045004277</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.86928929772521</v>
+        <v>23.91825030077521</v>
       </c>
       <c r="D69" t="n">
-        <v>1.51861586508</v>
+        <v>5.61925361846783</v>
       </c>
     </row>
   </sheetData>
